--- a/EC/Monthly Summary 2016-05.xlsx
+++ b/EC/Monthly Summary 2016-05.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Top Issues" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -39,6 +40,78 @@
   </si>
   <si>
     <t>Complete Percentage</t>
+  </si>
+  <si>
+    <t>Issue Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Onboard in-route failures</t>
+  </si>
+  <si>
+    <t>Poor GPS signal at terminals</t>
+  </si>
+  <si>
+    <t>Inefficient dispatching</t>
+  </si>
+  <si>
+    <t>Improper execution of bulletins</t>
+  </si>
+  <si>
+    <t>Dispatcher error preventing initialization at terminals</t>
+  </si>
+  <si>
+    <t>Link failures in wayside equipment</t>
+  </si>
+  <si>
+    <t>Wi-MAX data drops</t>
+  </si>
+  <si>
+    <t>Onboard software encounters a condition where it concludes that it's unable to safely enforce the brakes, enters a failed state.</t>
+  </si>
+  <si>
+    <t>Next Onboard software release (DE.1.0.7.0) includes improved logic to eliminate these failures</t>
+  </si>
+  <si>
+    <t>Trains encounter and/or are enforced by red signals due to inefficient dispatching. Trains are subsequently cut out to ensure run time requirements are met.</t>
+  </si>
+  <si>
+    <t>Dispatcher training</t>
+  </si>
+  <si>
+    <t>A few times a day, Wi-MAX connection drops for certain trains, causing unknown statuses for upcoming locations. Onboard software safely assumes STOP targets, and enforces the train.</t>
+  </si>
+  <si>
+    <t>Sporadic occurrences are expected. Continuous monitoring ensures no repeated incidents due to equipment failures.</t>
+  </si>
+  <si>
+    <t>Sporadic occurrences are expected due to the nature of wireless links. Continuous monitoring ensures no repeated incidents due to equipment failures.</t>
+  </si>
+  <si>
+    <t>Failures in communication links between wayside controllers results in STOP signal aspects</t>
+  </si>
+  <si>
+    <t>Continuous monitoring and rapid response when issues are encountered</t>
+  </si>
+  <si>
+    <t>Dispatcher and operator training</t>
+  </si>
+  <si>
+    <t>Trains do not pull up to the required 500 feet within a crossing and follow the "2 stop" procedure.</t>
+  </si>
+  <si>
+    <t>Equipment or crews not associated with trips result in failed inits.</t>
+  </si>
+  <si>
+    <t>On rare occasions, poor GPS signal due to canopies at terminals prevents the PTC map from loading.</t>
+  </si>
+  <si>
+    <t>Trains must initialize at next station</t>
   </si>
 </sst>
 </file>
@@ -48,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +130,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,21 +161,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -379,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,585 +489,695 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>42491</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>141</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>0.98601398601398604</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <f>A2+1</f>
+      <c r="A3" s="2">
+        <f t="shared" ref="A3:A16" si="0">A2+1</f>
         <v>42492</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>136</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>0.97841726618705038</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>0.96185446009389675</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f>A3+1</f>
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
         <v>42493</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>141</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>0.97902097902097907</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f>A4+1</f>
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
         <v>42494</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>141</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>0.97241379310344822</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>0.95862068965517244</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f>A5+1</f>
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
         <v>42495</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>139</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>0.96527777777777779</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>0.97280092592592604</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f>A6+1</f>
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
         <v>42496</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>146</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f>A7+1</f>
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
         <v>42497</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>141</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>6</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>0.95918367346938771</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>0.97569444444444442</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f>A8+1</f>
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
         <v>42498</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>138</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>7</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>0.9517241379310345</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>0.95659722222222221</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f>A9+1</f>
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
         <v>42499</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>137</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>0.95804195804195802</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>0.96238425925925908</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f>A10+1</f>
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
         <v>42500</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>133</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>9</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>0.93661971830985913</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>0.96354166666666663</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f>A11+1</f>
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
         <v>42501</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>140</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>0.97222222222222221</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>0.99421296296296291</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f>A12+1</f>
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
         <v>42502</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>134</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>7</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>0.95035460992907805</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>0.97872340425531912</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <f>A13+1</f>
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
         <v>42503</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>127</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>16</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>0.88811188811188813</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <v>0.93865740740740755</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <f>A14+1</f>
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
         <v>42504</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>143</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>0.98620689655172411</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <v>0.98611111111111116</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f>A15+1</f>
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
         <v>42505</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>131</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>11</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>0.92253521126760563</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>0.91956018518518534</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <f t="shared" ref="A17:A32" si="0">A16+1</f>
+      <c r="A17" s="2">
+        <f t="shared" ref="A17:A32" si="1">A16+1</f>
         <v>42506</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>127</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>6</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>0.95488721804511278</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <v>0.97407407407407409</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
         <v>42507</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>133</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>8</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>0.94326241134751776</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="5">
         <v>0.96270396270396263</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
         <v>42508</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>127</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>6</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <v>0.95488721804511278</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <v>0.94525547445255476</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
         <v>42509</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>123</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>12</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <v>0.91111111111111109</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <v>0.91726190476190472</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
         <v>42510</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>131</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>8</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>0.94244604316546765</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <v>0.93661971830985913</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
+      <c r="A22" s="2">
+        <f t="shared" si="1"/>
         <v>42511</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>125</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>14</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <v>0.89928057553956831</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <v>0.9131701631701632</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <f t="shared" si="0"/>
+      <c r="A23" s="2">
+        <f t="shared" si="1"/>
         <v>42512</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>122</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>9</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="5">
         <v>0.93129770992366412</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <v>0.9482323232323232</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <f t="shared" si="0"/>
+      <c r="A24" s="2">
+        <f t="shared" si="1"/>
         <v>42513</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>124</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>8</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="5">
         <v>0.93939393939393945</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="5">
         <v>0.95864661654135341</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <f t="shared" si="0"/>
+      <c r="A25" s="2">
+        <f t="shared" si="1"/>
         <v>42514</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>92</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <v>25</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="5">
         <v>0.78632478632478631</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="5">
         <v>0.85077519379844957</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <f t="shared" si="0"/>
+      <c r="A26" s="2">
+        <f t="shared" si="1"/>
         <v>42515</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>117</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>27</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="5">
         <v>0.8125</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="5">
         <v>0.78300865800865804</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <f t="shared" si="0"/>
+      <c r="A27" s="2">
+        <f t="shared" si="1"/>
         <v>42516</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>132</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>5</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="5">
         <v>0.96350364963503654</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="5">
         <v>0.98369565217391308</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <f t="shared" si="0"/>
+      <c r="A28" s="2">
+        <f t="shared" si="1"/>
         <v>42517</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>136</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <v>8</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="5">
         <v>0.94444444444444442</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="5">
         <v>0.94333333333333336</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <f t="shared" si="0"/>
+      <c r="A29" s="2">
+        <f t="shared" si="1"/>
         <v>42518</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>138</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>8</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="5">
         <v>0.9452054794520548</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="5">
         <v>0.9600225225225224</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <f t="shared" si="0"/>
+      <c r="A30" s="2">
+        <f t="shared" si="1"/>
         <v>42519</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>141</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>3</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="5">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="5">
         <v>0.98032407407407418</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <f t="shared" si="0"/>
+      <c r="A31" s="2">
+        <f t="shared" si="1"/>
         <v>42520</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>127</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>14</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="5">
         <v>0.900709219858156</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="5">
         <v>0.93083900226757355</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <f t="shared" si="0"/>
+      <c r="A32" s="2">
+        <f t="shared" si="1"/>
         <v>42521</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>129</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <v>8</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="5">
         <v>0.94160583941605835</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="5">
         <v>0.9642857142857143</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>